--- a/artfynd/A 7558-2020.xlsx
+++ b/artfynd/A 7558-2020.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105030033</v>
+        <v>105030138</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>77177</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503637.7373408998</v>
+        <v>503511.5508635575</v>
       </c>
       <c r="R3" t="n">
-        <v>6838237.474158124</v>
+        <v>6838417.747975093</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105030138</v>
+        <v>105030139</v>
       </c>
       <c r="B4" t="n">
-        <v>77177</v>
+        <v>90653</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503511.5508635575</v>
+        <v>503513.9504220288</v>
       </c>
       <c r="R4" t="n">
-        <v>6838417.747975093</v>
+        <v>6838395.91245344</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105030139</v>
+        <v>105030033</v>
       </c>
       <c r="B5" t="n">
-        <v>90653</v>
+        <v>78098</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503513.9504220288</v>
+        <v>503637.7373408998</v>
       </c>
       <c r="R5" t="n">
-        <v>6838395.91245344</v>
+        <v>6838237.474158124</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">

--- a/artfynd/A 7558-2020.xlsx
+++ b/artfynd/A 7558-2020.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105030138</v>
+        <v>105030033</v>
       </c>
       <c r="B3" t="n">
-        <v>77177</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503511.5508635575</v>
+        <v>503637.7373408998</v>
       </c>
       <c r="R3" t="n">
-        <v>6838417.747975093</v>
+        <v>6838237.474158124</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105030139</v>
+        <v>105030138</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>77177</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503513.9504220288</v>
+        <v>503511.5508635575</v>
       </c>
       <c r="R4" t="n">
-        <v>6838395.91245344</v>
+        <v>6838417.747975093</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105030033</v>
+        <v>105030139</v>
       </c>
       <c r="B5" t="n">
-        <v>78098</v>
+        <v>90653</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503637.7373408998</v>
+        <v>503513.9504220288</v>
       </c>
       <c r="R5" t="n">
-        <v>6838237.474158124</v>
+        <v>6838395.91245344</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
